--- a/PhoenixCI/Excel_Template/30055_TJF.xlsx
+++ b/PhoenixCI/Excel_Template/30055_TJF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7561DF65-4563-4D49-A2E9-7869D330FFE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF544D21-2BFF-43EA-83AC-87282D490763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="12795" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -648,38 +647,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1077,7 +1079,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11"/>
+      <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:9" hidden="1"/>
     <row r="3" spans="1:9" hidden="1"/>
@@ -1091,11 +1093,14 @@
     <row r="11" spans="1:9" hidden="1"/>
     <row r="12" spans="1:9" hidden="1"/>
     <row r="13" spans="1:9">
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="21">
       <c r="A14" s="1" t="s">
@@ -1130,143 +1135,143 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" hidden="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/PhoenixCI/Excel_Template/30055_TJF.xlsx
+++ b/PhoenixCI/Excel_Template/30055_TJF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF544D21-2BFF-43EA-83AC-87282D490763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB239298-D4A2-4EEC-8935-83C9D77DBEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="12795" windowHeight="9570"/>
   </bookViews>

--- a/PhoenixCI/Excel_Template/30055_TJF.xlsx
+++ b/PhoenixCI/Excel_Template/30055_TJF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB239298-D4A2-4EEC-8935-83C9D77DBEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF544D21-2BFF-43EA-83AC-87282D490763}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="12795" windowHeight="9570"/>
   </bookViews>
